--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1811214.2366219</v>
+        <v>1808800.790804067</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10694090.72290855</v>
+        <v>10689347.14596504</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9961437.916419057</v>
+        <v>9964553.327622948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>96.87233072674303</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805275</v>
+        <v>332.2110827772209</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524988</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413948</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712138</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S13" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>49.27444973707522</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1622,7 +1622,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>179.2270913718361</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,13 +1667,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>218.3373217201521</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313.8169275348803</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C17" t="n">
-        <v>210.686006090663</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D17" t="n">
-        <v>285.7661274920827</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E17" t="n">
-        <v>313.0134559436615</v>
+        <v>313.7062237299265</v>
       </c>
       <c r="F17" t="n">
-        <v>337.9591316131112</v>
+        <v>268.9014443097188</v>
       </c>
       <c r="G17" t="n">
-        <v>342.0048115248532</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>225.6908502587202</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.27084765957559</v>
+        <v>40.96361544584056</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V17" t="n">
-        <v>258.8353443415347</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W17" t="n">
-        <v>280.3240545888128</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X17" t="n">
-        <v>300.8141865498688</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y17" t="n">
-        <v>317.3210245274533</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.9150660533371</v>
+        <v>111.607833839602</v>
       </c>
       <c r="C19" t="n">
-        <v>98.32990697002761</v>
+        <v>99.02267475629255</v>
       </c>
       <c r="D19" t="n">
-        <v>79.69855888961213</v>
+        <v>80.39132667587707</v>
       </c>
       <c r="E19" t="n">
-        <v>77.51704851796895</v>
+        <v>78.20981630423388</v>
       </c>
       <c r="F19" t="n">
-        <v>76.50413389433102</v>
+        <v>77.19690168059596</v>
       </c>
       <c r="G19" t="n">
-        <v>97.108894130428</v>
+        <v>97.80166191669294</v>
       </c>
       <c r="H19" t="n">
-        <v>75.83810078572056</v>
+        <v>76.53086857198549</v>
       </c>
       <c r="I19" t="n">
-        <v>27.43550628123786</v>
+        <v>28.12827406750281</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.01523854144709</v>
+        <v>20.70800632771204</v>
       </c>
       <c r="S19" t="n">
-        <v>120.8521112028417</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T19" t="n">
-        <v>150.632035147569</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U19" t="n">
-        <v>217.2949240770126</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V19" t="n">
-        <v>183.2207291952278</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W19" t="n">
-        <v>217.6060842079908</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X19" t="n">
-        <v>156.7927412604369</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.6677392234946</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C20" t="n">
-        <v>296.3559776424073</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D20" t="n">
-        <v>285.7661274920827</v>
+        <v>216.7084401886895</v>
       </c>
       <c r="E20" t="n">
-        <v>224.0810980854757</v>
+        <v>313.7062237299265</v>
       </c>
       <c r="F20" t="n">
-        <v>337.9591316131112</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G20" t="n">
-        <v>342.0048115248532</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>225.6908502587202</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.27084765957564</v>
+        <v>40.96361544584057</v>
       </c>
       <c r="T20" t="n">
-        <v>135.0010560110199</v>
+        <v>135.6938237972849</v>
       </c>
       <c r="U20" t="n">
-        <v>182.0782578303018</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V20" t="n">
-        <v>258.8353443415347</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W20" t="n">
-        <v>280.3240545888128</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X20" t="n">
-        <v>300.8141865498688</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y20" t="n">
-        <v>317.3210245274533</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.9150660533371</v>
+        <v>111.607833839602</v>
       </c>
       <c r="C22" t="n">
-        <v>98.32990697002761</v>
+        <v>99.02267475629255</v>
       </c>
       <c r="D22" t="n">
-        <v>79.69855888961213</v>
+        <v>80.39132667587707</v>
       </c>
       <c r="E22" t="n">
-        <v>77.51704851796895</v>
+        <v>78.20981630423388</v>
       </c>
       <c r="F22" t="n">
-        <v>76.50413389433102</v>
+        <v>77.19690168059596</v>
       </c>
       <c r="G22" t="n">
-        <v>97.108894130428</v>
+        <v>97.80166191669294</v>
       </c>
       <c r="H22" t="n">
-        <v>75.83810078572056</v>
+        <v>76.53086857198549</v>
       </c>
       <c r="I22" t="n">
-        <v>27.43550628123788</v>
+        <v>28.12827406750282</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.01523854144712</v>
+        <v>20.70800632771206</v>
       </c>
       <c r="S22" t="n">
-        <v>120.8521112028417</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T22" t="n">
-        <v>150.632035147569</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U22" t="n">
-        <v>217.2949240770126</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V22" t="n">
-        <v>183.2207291952278</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W22" t="n">
-        <v>217.6060842079908</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X22" t="n">
-        <v>156.7927412604369</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.6677392234946</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313.8169275348803</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C23" t="n">
-        <v>296.3559776424073</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D23" t="n">
-        <v>285.7661274920827</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E23" t="n">
-        <v>313.0134559436615</v>
+        <v>313.7062237299265</v>
       </c>
       <c r="F23" t="n">
-        <v>337.9591316131112</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G23" t="n">
-        <v>342.0048115248532</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H23" t="n">
-        <v>225.6908502587202</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.27084765957564</v>
+        <v>40.96361544584055</v>
       </c>
       <c r="T23" t="n">
-        <v>135.0010560110199</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U23" t="n">
-        <v>182.0782578303018</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V23" t="n">
-        <v>258.8353443415347</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W23" t="n">
-        <v>280.3240545888128</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X23" t="n">
-        <v>300.8141865498688</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.3210245274533</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.9150660533371</v>
+        <v>111.607833839602</v>
       </c>
       <c r="C25" t="n">
-        <v>98.32990697002761</v>
+        <v>99.02267475629255</v>
       </c>
       <c r="D25" t="n">
-        <v>79.69855888961213</v>
+        <v>80.39132667587707</v>
       </c>
       <c r="E25" t="n">
-        <v>77.51704851796895</v>
+        <v>78.20981630423388</v>
       </c>
       <c r="F25" t="n">
-        <v>76.50413389433102</v>
+        <v>77.19690168059596</v>
       </c>
       <c r="G25" t="n">
-        <v>97.108894130428</v>
+        <v>97.80166191669294</v>
       </c>
       <c r="H25" t="n">
-        <v>75.83810078572056</v>
+        <v>76.53086857198549</v>
       </c>
       <c r="I25" t="n">
-        <v>27.43550628123788</v>
+        <v>28.12827406750281</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.01523854144712</v>
+        <v>20.70800632771204</v>
       </c>
       <c r="S25" t="n">
-        <v>120.8521112028417</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T25" t="n">
-        <v>150.632035147569</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U25" t="n">
-        <v>217.2949240770126</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V25" t="n">
-        <v>183.2207291952278</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W25" t="n">
-        <v>217.6060842079908</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X25" t="n">
-        <v>156.7927412604369</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.6677392234946</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="26">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958404</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3029,19 +3029,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3187,22 +3187,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124552</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383239</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052293</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010745</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846426</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482634</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621587</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>239.4866237999587</v>
+        <v>239.4866237999589</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>98.69583361727813</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>230.7340562419011</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>304.6842736982939</v>
+        <v>310.7752483302254</v>
       </c>
       <c r="C41" t="n">
-        <v>287.2233238058209</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
-        <v>276.6334736554963</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
-        <v>303.8808021070751</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F41" t="n">
-        <v>328.8264777765248</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G41" t="n">
-        <v>332.8721576882668</v>
+        <v>293.0767011150995</v>
       </c>
       <c r="H41" t="n">
-        <v>216.5581964221338</v>
+        <v>222.6491710540653</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.13819382298918</v>
+        <v>37.22916845492063</v>
       </c>
       <c r="T41" t="n">
-        <v>125.8684021744335</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V41" t="n">
-        <v>249.7026905049482</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W41" t="n">
-        <v>271.1914007522263</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X41" t="n">
-        <v>291.6815327132824</v>
+        <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>206.2418430037254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.7824122167506</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>95.28822776537264</v>
       </c>
       <c r="D43" t="n">
-        <v>121.3845874342847</v>
+        <v>76.65687968495716</v>
       </c>
       <c r="E43" t="n">
-        <v>68.3843946813825</v>
+        <v>74.47536931331398</v>
       </c>
       <c r="F43" t="n">
-        <v>67.37148005774458</v>
+        <v>73.46245468967605</v>
       </c>
       <c r="G43" t="n">
-        <v>87.97624029384156</v>
+        <v>94.06721492577303</v>
       </c>
       <c r="H43" t="n">
-        <v>66.70544694913411</v>
+        <v>72.79642158106559</v>
       </c>
       <c r="I43" t="n">
-        <v>18.30285244465144</v>
+        <v>24.3938270765829</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.88258470486068</v>
+        <v>16.97355933679214</v>
       </c>
       <c r="S43" t="n">
-        <v>111.7194573662552</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T43" t="n">
-        <v>141.4993813109825</v>
+        <v>147.590355942914</v>
       </c>
       <c r="U43" t="n">
-        <v>208.1622702404262</v>
+        <v>245.6659011078998</v>
       </c>
       <c r="V43" t="n">
-        <v>174.0880753586413</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W43" t="n">
-        <v>208.4734303714043</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X43" t="n">
-        <v>147.6600874238505</v>
+        <v>153.751062055782</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.5350853869081</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.0824805439605</v>
+        <v>310.7752483302254</v>
       </c>
       <c r="C44" t="n">
-        <v>292.6215306514875</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D44" t="n">
-        <v>282.0316805011629</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.2246846221914</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G44" t="n">
-        <v>338.2703645339334</v>
+        <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>221.9564032678004</v>
+        <v>172.4551712651757</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>36.53640066865582</v>
+        <v>37.22916845492063</v>
       </c>
       <c r="T44" t="n">
-        <v>90.07859045265172</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U44" t="n">
-        <v>178.3438108393819</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V44" t="n">
-        <v>255.1008973506149</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W44" t="n">
-        <v>276.589607597893</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X44" t="n">
-        <v>297.079739558949</v>
+        <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>313.5865775365336</v>
+        <v>314.2793453227984</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.1806190624173</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C46" t="n">
-        <v>94.5954599791078</v>
+        <v>95.28822776537264</v>
       </c>
       <c r="D46" t="n">
-        <v>75.96411189869232</v>
+        <v>76.65687968495716</v>
       </c>
       <c r="E46" t="n">
-        <v>73.78260152704914</v>
+        <v>74.47536931331398</v>
       </c>
       <c r="F46" t="n">
-        <v>72.76968690341121</v>
+        <v>73.46245468967605</v>
       </c>
       <c r="G46" t="n">
-        <v>93.37444713950819</v>
+        <v>94.06721492577303</v>
       </c>
       <c r="H46" t="n">
-        <v>72.10365379480075</v>
+        <v>72.79642158106559</v>
       </c>
       <c r="I46" t="n">
-        <v>23.70105929031808</v>
+        <v>24.3938270765829</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.28079155052731</v>
+        <v>16.97355933679214</v>
       </c>
       <c r="S46" t="n">
-        <v>117.1176642119219</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T46" t="n">
-        <v>146.8975881566492</v>
+        <v>179.0030121784559</v>
       </c>
       <c r="U46" t="n">
-        <v>213.5604770860928</v>
+        <v>214.2532448723577</v>
       </c>
       <c r="V46" t="n">
-        <v>179.486282204308</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W46" t="n">
-        <v>256.3685780328499</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X46" t="n">
-        <v>153.0582942695171</v>
+        <v>153.751062055782</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.9332922325748</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.050980439092</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.085362259212</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.816562412992</v>
+        <v>990.5514538055351</v>
       </c>
       <c r="E11" t="n">
-        <v>793.0252085752794</v>
+        <v>652.2128341553641</v>
       </c>
       <c r="F11" t="n">
-        <v>695.1743694573571</v>
+        <v>652.2128341553641</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0988180628848</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,52 +5039,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3257.312051896798</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3093.331203041551</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3093.331203041551</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2804.265214458512</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2804.265214458512</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2472.796354957963</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>2124.653921742683</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5106,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>797.6353891180886</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C13" t="n">
-        <v>670.696104950713</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5763642989085</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>456.6601694770467</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7671207396676</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749178</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533068</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543158</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783888</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020816</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.552954957889</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353499</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2059.061287995483</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>2009.289116543892</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1762.183148430067</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1549.495558984712</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.075287708282</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.082635570796</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.286955187797</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1949.376240813992</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1627.863356821654</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1317.047291162977</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>978.7086715128056</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>615.1723996712714</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>247.5495824643411</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810562</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
         <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2614.542573243048</v>
+        <v>2393.999824030772</v>
       </c>
       <c r="X14" t="n">
-        <v>2288.526447930041</v>
+        <v>2067.983698717766</v>
       </c>
       <c r="Y14" t="n">
-        <v>2288.526447930041</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315258</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5467,19 +5467,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1798.956947667631</v>
+        <v>1473.076688949002</v>
       </c>
       <c r="C17" t="n">
-        <v>1586.142800101304</v>
+        <v>1173.027451142263</v>
       </c>
       <c r="D17" t="n">
-        <v>1297.490146068898</v>
+        <v>883.6750316691841</v>
       </c>
       <c r="E17" t="n">
-        <v>981.314938044997</v>
+        <v>566.800058204612</v>
       </c>
       <c r="F17" t="n">
-        <v>639.9420778297331</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="G17" t="n">
-        <v>294.4826722490726</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.92819771061</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T17" t="n">
-        <v>3284.92819771061</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>3284.92819771061</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V17" t="n">
-        <v>3023.478354941383</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W17" t="n">
-        <v>2740.322744245613</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2436.470030558877</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.943743157409</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>604.3223684214017</v>
+        <v>609.2207265061033</v>
       </c>
       <c r="C19" t="n">
-        <v>504.9992300678385</v>
+        <v>509.1978227118685</v>
       </c>
       <c r="D19" t="n">
-        <v>424.4956352298465</v>
+        <v>427.9944624332048</v>
       </c>
       <c r="E19" t="n">
-        <v>346.195586221797</v>
+        <v>348.9946479844837</v>
       </c>
       <c r="F19" t="n">
-        <v>268.9186832982303</v>
+        <v>271.0179796202453</v>
       </c>
       <c r="G19" t="n">
-        <v>170.8288912472929</v>
+        <v>172.2284221286363</v>
       </c>
       <c r="H19" t="n">
-        <v>94.2247490394944</v>
+        <v>94.92451448016605</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>649.6102262754175</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>993.7672718749666</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1335.175648580831</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1634.505247501245</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1867.112747934904</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1944.723044087419</v>
+        <v>1955.919291138166</v>
       </c>
       <c r="R19" t="n">
-        <v>1924.505631419291</v>
+        <v>1935.002113029366</v>
       </c>
       <c r="S19" t="n">
-        <v>1802.432791820461</v>
+        <v>1812.229507989864</v>
       </c>
       <c r="T19" t="n">
-        <v>1650.279220964331</v>
+        <v>1659.376171693062</v>
       </c>
       <c r="U19" t="n">
-        <v>1430.789398664318</v>
+        <v>1439.186583952378</v>
       </c>
       <c r="V19" t="n">
-        <v>1245.717955032775</v>
+        <v>1253.415374880163</v>
       </c>
       <c r="W19" t="n">
-        <v>1025.913829570158</v>
+        <v>1032.911483976874</v>
       </c>
       <c r="X19" t="n">
-        <v>867.5373232464842</v>
+        <v>873.8352122125291</v>
       </c>
       <c r="Y19" t="n">
-        <v>716.3577886772978</v>
+        <v>721.955912202671</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1795.661607964154</v>
+        <v>1473.076688949001</v>
       </c>
       <c r="C20" t="n">
-        <v>1496.312135598086</v>
+        <v>1173.027451142261</v>
       </c>
       <c r="D20" t="n">
-        <v>1207.659481565679</v>
+        <v>954.1300368102519</v>
       </c>
       <c r="E20" t="n">
-        <v>981.3149380449964</v>
+        <v>637.2550633456797</v>
       </c>
       <c r="F20" t="n">
-        <v>639.9420778297325</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="G20" t="n">
-        <v>294.4826722490726</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5765,37 +5765,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.92819771061</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T20" t="n">
-        <v>3148.563494669176</v>
+        <v>3147.163963787831</v>
       </c>
       <c r="U20" t="n">
-        <v>2964.646062517356</v>
+        <v>2962.546766195339</v>
       </c>
       <c r="V20" t="n">
-        <v>2703.196219748129</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W20" t="n">
-        <v>2420.040609052358</v>
+        <v>2416.541781848999</v>
       </c>
       <c r="X20" t="n">
-        <v>2116.187895365622</v>
+        <v>2111.989302721591</v>
       </c>
       <c r="Y20" t="n">
-        <v>1795.661607964154</v>
+        <v>1790.763249879451</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>604.3223684214017</v>
+        <v>609.2207265061032</v>
       </c>
       <c r="C22" t="n">
-        <v>504.9992300678385</v>
+        <v>509.1978227118684</v>
       </c>
       <c r="D22" t="n">
-        <v>424.4956352298465</v>
+        <v>427.9944624332047</v>
       </c>
       <c r="E22" t="n">
-        <v>346.195586221797</v>
+        <v>348.9946479844835</v>
       </c>
       <c r="F22" t="n">
-        <v>268.9186832982303</v>
+        <v>271.0179796202452</v>
       </c>
       <c r="G22" t="n">
-        <v>170.828891247293</v>
+        <v>172.2284221286362</v>
       </c>
       <c r="H22" t="n">
-        <v>94.22474903949443</v>
+        <v>94.92451448016604</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
@@ -5923,37 +5923,37 @@
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.701494551992</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985651</v>
       </c>
       <c r="Q22" t="n">
-        <v>1944.723044087419</v>
+        <v>1955.919291138165</v>
       </c>
       <c r="R22" t="n">
-        <v>1924.505631419291</v>
+        <v>1935.002113029365</v>
       </c>
       <c r="S22" t="n">
-        <v>1802.432791820461</v>
+        <v>1812.229507989864</v>
       </c>
       <c r="T22" t="n">
-        <v>1650.279220964331</v>
+        <v>1659.376171693062</v>
       </c>
       <c r="U22" t="n">
-        <v>1430.789398664318</v>
+        <v>1439.186583952378</v>
       </c>
       <c r="V22" t="n">
-        <v>1245.717955032775</v>
+        <v>1253.415374880163</v>
       </c>
       <c r="W22" t="n">
-        <v>1025.913829570158</v>
+        <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>867.5373232464842</v>
+        <v>873.835212212529</v>
       </c>
       <c r="Y22" t="n">
-        <v>716.3577886772978</v>
+        <v>721.9559122026709</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1893.794669610086</v>
+        <v>1898.193195237165</v>
       </c>
       <c r="C23" t="n">
-        <v>1594.445197244018</v>
+        <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
-        <v>1305.792543211611</v>
+        <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>989.6173351877105</v>
+        <v>991.9165644927743</v>
       </c>
       <c r="F23" t="n">
-        <v>648.2444749724464</v>
+        <v>649.8439388368388</v>
       </c>
       <c r="G23" t="n">
-        <v>302.7850693917867</v>
+        <v>303.6847678155074</v>
       </c>
       <c r="H23" t="n">
-        <v>74.81451357489762</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="I23" t="n">
-        <v>74.81451357489762</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J23" t="n">
-        <v>431.099293554276</v>
+        <v>361.9270325896032</v>
       </c>
       <c r="K23" t="n">
-        <v>794.1386374634606</v>
+        <v>695.7464062794497</v>
       </c>
       <c r="L23" t="n">
-        <v>1245.172850711869</v>
+        <v>1146.780619527859</v>
       </c>
       <c r="M23" t="n">
-        <v>1778.704755383794</v>
+        <v>1680.312524199783</v>
       </c>
       <c r="N23" t="n">
-        <v>2325.483572442576</v>
+        <v>2227.091341258566</v>
       </c>
       <c r="O23" t="n">
-        <v>2828.456043321913</v>
+        <v>2730.063812137902</v>
       </c>
       <c r="P23" t="n">
-        <v>3223.23040967909</v>
+        <v>3443.418899584849</v>
       </c>
       <c r="Q23" t="n">
-        <v>3681.708612188078</v>
+        <v>3691.705261340531</v>
       </c>
       <c r="R23" t="n">
-        <v>3740.725678744881</v>
+        <v>3750.722327897333</v>
       </c>
       <c r="S23" t="n">
-        <v>3700.04805484632</v>
+        <v>3709.3449385581</v>
       </c>
       <c r="T23" t="n">
-        <v>3563.683351804886</v>
+        <v>3572.280470075994</v>
       </c>
       <c r="U23" t="n">
-        <v>3379.765919653066</v>
+        <v>3387.663272483503</v>
       </c>
       <c r="V23" t="n">
-        <v>3118.316076883839</v>
+        <v>3125.513664273604</v>
       </c>
       <c r="W23" t="n">
-        <v>2835.160466188068</v>
+        <v>2841.658288137162</v>
       </c>
       <c r="X23" t="n">
-        <v>2531.307752501332</v>
+        <v>2537.105809009754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2210.781465099864</v>
+        <v>2215.879756167615</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>949.8462516238229</v>
+        <v>950.0461846068719</v>
       </c>
       <c r="C24" t="n">
-        <v>775.3932223426959</v>
+        <v>775.5931553257449</v>
       </c>
       <c r="D24" t="n">
-        <v>626.4588126814447</v>
+        <v>626.6587456644936</v>
       </c>
       <c r="E24" t="n">
-        <v>467.2213576759891</v>
+        <v>467.4212906590382</v>
       </c>
       <c r="F24" t="n">
-        <v>320.6867997028741</v>
+        <v>320.8867326859231</v>
       </c>
       <c r="G24" t="n">
-        <v>184.3236995354922</v>
+        <v>184.5236325185412</v>
       </c>
       <c r="H24" t="n">
-        <v>93.82180517335968</v>
+        <v>94.0217381564087</v>
       </c>
       <c r="I24" t="n">
-        <v>74.81451357489762</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J24" t="n">
-        <v>168.4917830655149</v>
+        <v>168.691716048564</v>
       </c>
       <c r="K24" t="n">
-        <v>406.755982045862</v>
+        <v>406.9559150289111</v>
       </c>
       <c r="L24" t="n">
-        <v>773.4541423585272</v>
+        <v>773.6540753415766</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.730467580843</v>
+        <v>1220.930400563892</v>
       </c>
       <c r="N24" t="n">
-        <v>1694.253511135297</v>
+        <v>1694.453444118347</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.214790553352</v>
+        <v>2105.414723536402</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.714382029455</v>
+        <v>2415.914315012505</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.355939676056</v>
+        <v>2573.555872659104</v>
       </c>
       <c r="R24" t="n">
-        <v>2573.211586268571</v>
+        <v>2573.41151925162</v>
       </c>
       <c r="S24" t="n">
-        <v>2443.773699762051</v>
+        <v>2443.9736327451</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.130699439906</v>
+        <v>2251.330632422955</v>
       </c>
       <c r="U24" t="n">
-        <v>2023.062852574322</v>
+        <v>2023.262785557371</v>
       </c>
       <c r="V24" t="n">
-        <v>1787.910744342579</v>
+        <v>1788.110677325628</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.673387614378</v>
+        <v>1533.873320597427</v>
       </c>
       <c r="X24" t="n">
-        <v>1325.821887408845</v>
+        <v>1326.021820391894</v>
       </c>
       <c r="Y24" t="n">
-        <v>1118.061588643891</v>
+        <v>1118.26152162694</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612.6247655641159</v>
+        <v>617.7230566318667</v>
       </c>
       <c r="C25" t="n">
-        <v>513.3016272105527</v>
+        <v>517.7001528376318</v>
       </c>
       <c r="D25" t="n">
-        <v>432.7980323725607</v>
+        <v>436.496792558968</v>
       </c>
       <c r="E25" t="n">
-        <v>354.4979833645112</v>
+        <v>357.4969781102469</v>
       </c>
       <c r="F25" t="n">
-        <v>277.2210804409445</v>
+        <v>279.5203097460085</v>
       </c>
       <c r="G25" t="n">
-        <v>179.1312883900072</v>
+        <v>180.7307522543995</v>
       </c>
       <c r="H25" t="n">
-        <v>102.5271461822086</v>
+        <v>103.4268446059293</v>
       </c>
       <c r="I25" t="n">
-        <v>74.81451357489762</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J25" t="n">
-        <v>119.9371460218331</v>
+        <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>323.9243289707094</v>
+        <v>324.1242619537586</v>
       </c>
       <c r="L25" t="n">
-        <v>640.4841274192056</v>
+        <v>640.6840604022548</v>
       </c>
       <c r="M25" t="n">
-        <v>1002.069669017681</v>
+        <v>1013.465849051477</v>
       </c>
       <c r="N25" t="n">
-        <v>1343.478045723546</v>
+        <v>1354.874225757341</v>
       </c>
       <c r="O25" t="n">
-        <v>1642.80764464396</v>
+        <v>1654.203824677755</v>
       </c>
       <c r="P25" t="n">
-        <v>1875.415145077619</v>
+        <v>1886.811325111414</v>
       </c>
       <c r="Q25" t="n">
-        <v>1953.025441230133</v>
+        <v>1964.421621263929</v>
       </c>
       <c r="R25" t="n">
-        <v>1932.808028562005</v>
+        <v>1943.504443155129</v>
       </c>
       <c r="S25" t="n">
-        <v>1810.735188963175</v>
+        <v>1820.731838115628</v>
       </c>
       <c r="T25" t="n">
-        <v>1658.581618107045</v>
+        <v>1667.878501818826</v>
       </c>
       <c r="U25" t="n">
-        <v>1439.091795807032</v>
+        <v>1447.688914078141</v>
       </c>
       <c r="V25" t="n">
-        <v>1254.020352175489</v>
+        <v>1261.917705005927</v>
       </c>
       <c r="W25" t="n">
-        <v>1034.216226712872</v>
+        <v>1041.413814102638</v>
       </c>
       <c r="X25" t="n">
-        <v>875.8397203891984</v>
+        <v>882.3375423382925</v>
       </c>
       <c r="Y25" t="n">
-        <v>724.660185820012</v>
+        <v>730.4582423284344</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058813</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
         <v>2852.295579285458</v>
@@ -6482,7 +6482,7 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982171</v>
@@ -6674,61 +6674,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659143</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.011402386888</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,67 +6832,67 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982167</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,64 +6920,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7011,22 +7011,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>500.930830390936</v>
       </c>
       <c r="C37" t="n">
-        <v>331.994647463029</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245367</v>
+        <v>379.2208771983801</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1182.105910636354</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.09285700431</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>835.3471215411929</v>
+        <v>934.0185561150365</v>
       </c>
       <c r="X37" t="n">
-        <v>706.0290052170189</v>
+        <v>804.7004397908626</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734889</v>
+        <v>583.9078606473324</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,19 +7172,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7205,16 +7205,16 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7254,10 +7254,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,7 +7269,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647792</v>
+        <v>453.7336441225991</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107157</v>
+        <v>383.4688957685356</v>
       </c>
       <c r="D40" t="n">
-        <v>379.22087719838</v>
+        <v>332.0236909300434</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>282.7820319214937</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
@@ -7330,16 +7330,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1379.44877978404</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151997</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.68999068888</v>
+        <v>985.4928044205428</v>
       </c>
       <c r="X40" t="n">
-        <v>903.3718743647057</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y40" t="n">
-        <v>781.250729795019</v>
+        <v>635.3821089528388</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1830.142855275939</v>
+        <v>1820.70792253502</v>
       </c>
       <c r="C41" t="n">
-        <v>1540.018285775109</v>
+        <v>1524.430853405977</v>
       </c>
       <c r="D41" t="n">
-        <v>1260.590534607941</v>
+        <v>1238.850602610595</v>
       </c>
       <c r="E41" t="n">
-        <v>953.6402294492797</v>
+        <v>925.7477978237199</v>
       </c>
       <c r="F41" t="n">
-        <v>621.4922720992546</v>
+        <v>587.4473408454812</v>
       </c>
       <c r="G41" t="n">
-        <v>285.2577693838337</v>
+        <v>291.4102690120474</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,16 +7409,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,7 +7427,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3294.153100575848</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3167.013300399653</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>3167.013300399653</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>2914.788360495664</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W41" t="n">
-        <v>2640.857652665132</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X41" t="n">
-        <v>2346.229841843635</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y41" t="n">
-        <v>2137.904747900478</v>
+        <v>2134.622314787773</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>669.9179982096244</v>
+        <v>582.8155457622252</v>
       </c>
       <c r="C43" t="n">
-        <v>500.9818152817176</v>
+        <v>486.5648106456871</v>
       </c>
       <c r="D43" t="n">
-        <v>378.3711209036522</v>
+        <v>409.1336190447203</v>
       </c>
       <c r="E43" t="n">
-        <v>309.2959747608417</v>
+        <v>333.9059732736961</v>
       </c>
       <c r="F43" t="n">
-        <v>241.2439747025138</v>
+        <v>259.7014735871546</v>
       </c>
       <c r="G43" t="n">
-        <v>152.3790855168153</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H43" t="n">
-        <v>84.99984617425558</v>
+        <v>91.15234580246918</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1916.302038285603</v>
+        <v>1910.14953865739</v>
       </c>
       <c r="S43" t="n">
-        <v>1803.454101552012</v>
+        <v>1791.149102295585</v>
       </c>
       <c r="T43" t="n">
-        <v>1660.52543356112</v>
+        <v>1642.06793467648</v>
       </c>
       <c r="U43" t="n">
-        <v>1450.260514126346</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V43" t="n">
-        <v>1274.413973360042</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W43" t="n">
-        <v>1063.834750762664</v>
+        <v>995.1897971999056</v>
       </c>
       <c r="X43" t="n">
-        <v>914.6831473042292</v>
+        <v>839.8856941132572</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.7285156002816</v>
+        <v>691.778562781096</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1550.456221054988</v>
+        <v>1503.254038370578</v>
       </c>
       <c r="C44" t="n">
-        <v>1254.878917366617</v>
+        <v>1206.976969241535</v>
       </c>
       <c r="D44" t="n">
-        <v>969.9984320119066</v>
+        <v>921.3967184461536</v>
       </c>
       <c r="E44" t="n">
-        <v>969.9984320119066</v>
+        <v>921.3967184461536</v>
       </c>
       <c r="F44" t="n">
-        <v>632.3977404743396</v>
+        <v>583.0962614679149</v>
       </c>
       <c r="G44" t="n">
-        <v>290.7105035713758</v>
+        <v>240.7092591242801</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.700366388306</v>
+        <v>3288.000600947636</v>
       </c>
       <c r="T44" t="n">
-        <v>3197.711891183607</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>3017.566627709484</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2759.888953617954</v>
+        <v>2715.48583269623</v>
       </c>
       <c r="W44" t="n">
-        <v>2480.50551159988</v>
+        <v>2435.402625237485</v>
       </c>
       <c r="X44" t="n">
-        <v>2180.424966590841</v>
+        <v>2134.622314787774</v>
       </c>
       <c r="Y44" t="n">
-        <v>1863.67084786707</v>
+        <v>1817.168430623331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7743,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.9171876775243</v>
+        <v>582.8155457622253</v>
       </c>
       <c r="C46" t="n">
-        <v>482.3662180016579</v>
+        <v>486.5648106456872</v>
       </c>
       <c r="D46" t="n">
-        <v>405.6347918413626</v>
+        <v>409.1336190447204</v>
       </c>
       <c r="E46" t="n">
-        <v>331.1069115110099</v>
+        <v>333.9059732736961</v>
       </c>
       <c r="F46" t="n">
-        <v>257.60217726514</v>
+        <v>259.7014735871547</v>
       </c>
       <c r="G46" t="n">
-        <v>163.2845538918994</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H46" t="n">
-        <v>90.45258036179764</v>
+        <v>91.1523458024692</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.849304098061</v>
+        <v>1910.14953865739</v>
       </c>
       <c r="S46" t="n">
-        <v>1792.548633176928</v>
+        <v>1791.149102295585</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.167230998494</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U46" t="n">
-        <v>1428.449577376178</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V46" t="n">
-        <v>1247.150302422332</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W46" t="n">
-        <v>988.1921427931902</v>
+        <v>995.1897971999058</v>
       </c>
       <c r="X46" t="n">
-        <v>833.5878051472133</v>
+        <v>839.8856941132573</v>
       </c>
       <c r="Y46" t="n">
-        <v>686.1804392557236</v>
+        <v>691.7785627810961</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>160.5796298673112</v>
+        <v>161.2833466331804</v>
       </c>
       <c r="K8" t="n">
-        <v>189.4162106649751</v>
+        <v>190.4708996772603</v>
       </c>
       <c r="L8" t="n">
-        <v>197.7130517297706</v>
+        <v>199.0214867114924</v>
       </c>
       <c r="M8" t="n">
-        <v>188.0045345243993</v>
+        <v>189.4604205499955</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3862319418219</v>
+        <v>187.8656757253942</v>
       </c>
       <c r="O8" t="n">
-        <v>189.4691943873883</v>
+        <v>190.866191200129</v>
       </c>
       <c r="P8" t="n">
-        <v>196.5570697020262</v>
+        <v>197.7493741610369</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.2655135228379</v>
+        <v>197.1608845168174</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>114.6480536875606</v>
+        <v>115.0671825723699</v>
       </c>
       <c r="K9" t="n">
-        <v>117.0075172264481</v>
+        <v>117.7238752484537</v>
       </c>
       <c r="L9" t="n">
-        <v>110.5406009241736</v>
+        <v>111.5038326888309</v>
       </c>
       <c r="M9" t="n">
-        <v>109.4432753220017</v>
+        <v>110.5673213586496</v>
       </c>
       <c r="N9" t="n">
-        <v>97.78572637756238</v>
+        <v>98.93952256809695</v>
       </c>
       <c r="O9" t="n">
-        <v>111.8990732175948</v>
+        <v>112.9545713195515</v>
       </c>
       <c r="P9" t="n">
-        <v>109.3372211943627</v>
+        <v>110.1843514755394</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.5124675550386</v>
+        <v>124.0787517137819</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>118.8033207046201</v>
+        <v>119.3562654747611</v>
       </c>
       <c r="M10" t="n">
-        <v>121.9702492644922</v>
+        <v>122.5532519960284</v>
       </c>
       <c r="N10" t="n">
-        <v>111.1331744994013</v>
+        <v>111.7023147290567</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1677457096843</v>
+        <v>123.6934388297866</v>
       </c>
       <c r="P10" t="n">
-        <v>124.6458006376686</v>
+        <v>125.0956219182089</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>99.02369199255673</v>
       </c>
       <c r="K23" t="n">
-        <v>29.51512143367489</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>287.0017854473926</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>165.3902622431549</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.0017854473909</v>
+        <v>231.1066821161363</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>287.0017854473923</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.7354935515726</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0615996526113</v>
+        <v>15.06989098845859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>268.4267852420425</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.73550625763998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>128.697569766168</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>68.40553639689182</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>83.92851037866836</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>85.6699715517443</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>69.75045508965729</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>135.0010560110199</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>182.0782578303017</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.8169275348803</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>69.75045508965817</v>
       </c>
       <c r="E20" t="n">
-        <v>88.93235785818581</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>45.88643120509875</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>172.9456039937153</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>101.9465276871416</v>
+        <v>314.2793453227984</v>
       </c>
     </row>
     <row r="42">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>309.2790089527417</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978888957</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>41.1880185674484</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>922840.5636118604</v>
+        <v>923339.2679683808</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>785291.160539532</v>
+        <v>794623.2765073107</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819686.4912858921</v>
+        <v>818895.1703543531</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819686.4912858923</v>
+        <v>818895.170354353</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>867266.2008517681</v>
+        <v>867620.6638549883</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878492.9762682753</v>
+        <v>878492.9762682752</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878492.9762682753</v>
+        <v>878492.9762682752</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878492.9762682753</v>
+        <v>878492.9762682752</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852546.8054811123</v>
+        <v>852546.8054811124</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830118.3564572714</v>
+        <v>823160.8797742012</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>823952.2007057403</v>
+        <v>823160.8797742014</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
-        <v>593989.2616358988</v>
+        <v>593988.7831429071</v>
       </c>
       <c r="E2" t="n">
-        <v>547684.2172173165</v>
+        <v>554284.9821701361</v>
       </c>
       <c r="F2" t="n">
         <v>554284.9821701362</v>
       </c>
       <c r="G2" t="n">
-        <v>572012.6218915726</v>
+        <v>571452.9070863365</v>
       </c>
       <c r="H2" t="n">
-        <v>572012.6218915713</v>
+        <v>571452.9070863364</v>
       </c>
       <c r="I2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="J2" t="n">
         <v>595255.2831516054</v>
       </c>
       <c r="K2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="L2" t="n">
         <v>595255.2831516055</v>
       </c>
-      <c r="L2" t="n">
-        <v>595255.2831516054</v>
-      </c>
       <c r="M2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="O2" t="n">
-        <v>579391.2582323028</v>
+        <v>574470.1161881805</v>
       </c>
       <c r="P2" t="n">
-        <v>575029.8309934151</v>
+        <v>574470.1161881806</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51370.31804710942</v>
+        <v>49603.9900426512</v>
       </c>
       <c r="E3" t="n">
-        <v>1108839.041217619</v>
+        <v>1114814.601112465</v>
       </c>
       <c r="F3" t="n">
-        <v>4318.565476533303</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17553.42200800612</v>
+        <v>16999.2077789942</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27597.27188234625</v>
+        <v>28261.85161716387</v>
       </c>
       <c r="J3" t="n">
-        <v>36418.56349441998</v>
+        <v>40637.45238225414</v>
       </c>
       <c r="K3" t="n">
-        <v>4318.565476533303</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>17553.42200800615</v>
+        <v>16999.2077789942</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,31 +26421,31 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>424417.3609888168</v>
+        <v>425002.2112916257</v>
       </c>
       <c r="E4" t="n">
-        <v>53615.62358604901</v>
+        <v>58825.50137861082</v>
       </c>
       <c r="F4" t="n">
-        <v>58825.50137861086</v>
+        <v>58825.50137861082</v>
       </c>
       <c r="G4" t="n">
-        <v>72671.31158852916</v>
+        <v>72234.15779441223</v>
       </c>
       <c r="H4" t="n">
-        <v>72671.31158852922</v>
+        <v>72234.15779441223</v>
       </c>
       <c r="I4" t="n">
-        <v>87439.7716104204</v>
+        <v>87358.2623628677</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173095</v>
+        <v>84858.15940173088</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173088</v>
+        <v>84858.15940173087</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173095</v>
+        <v>84858.15940173082</v>
       </c>
       <c r="M4" t="n">
         <v>90964.0109881571</v>
@@ -26454,10 +26454,10 @@
         <v>90964.0109881571</v>
       </c>
       <c r="O4" t="n">
-        <v>78474.82049170072</v>
+        <v>74600.57793586684</v>
       </c>
       <c r="P4" t="n">
-        <v>75041.2217738477</v>
+        <v>74600.57793586687</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34935.23034400067</v>
+        <v>34890.26850253475</v>
       </c>
       <c r="E5" t="n">
-        <v>77801.67147047342</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80100.1166152706</v>
+        <v>80041.87632024709</v>
       </c>
       <c r="H5" t="n">
-        <v>80100.11661527058</v>
+        <v>80041.87632024706</v>
       </c>
       <c r="I5" t="n">
-        <v>86409.93844373338</v>
+        <v>86503.64721582715</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80867.88969065857</v>
+        <v>80355.82754432672</v>
       </c>
       <c r="P5" t="n">
-        <v>80414.06783935023</v>
+        <v>80355.82754432673</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118698.4955740323</v>
+        <v>118694.0819961642</v>
       </c>
       <c r="C6" t="n">
-        <v>118698.4955740322</v>
+        <v>118694.0819961639</v>
       </c>
       <c r="D6" t="n">
-        <v>83266.35225597194</v>
+        <v>84487.9460646861</v>
       </c>
       <c r="E6" t="n">
-        <v>-692572.1190568245</v>
+        <v>-697751.890542658</v>
       </c>
       <c r="F6" t="n">
-        <v>412885.4219932103</v>
+        <v>417062.7105698075</v>
       </c>
       <c r="G6" t="n">
-        <v>401687.7716797667</v>
+        <v>402095.5880338373</v>
       </c>
       <c r="H6" t="n">
-        <v>419241.1936877719</v>
+        <v>419094.7958128315</v>
       </c>
       <c r="I6" t="n">
-        <v>393808.3012151056</v>
+        <v>393131.5219557467</v>
       </c>
       <c r="J6" t="n">
-        <v>384600.6185806483</v>
+        <v>380381.7296928142</v>
       </c>
       <c r="K6" t="n">
-        <v>416700.6165985353</v>
+        <v>421019.1820750686</v>
       </c>
       <c r="L6" t="n">
-        <v>403465.7600670622</v>
+        <v>404019.9742960744</v>
       </c>
       <c r="M6" t="n">
-        <v>219604.5748644744</v>
+        <v>219604.5748644741</v>
       </c>
       <c r="N6" t="n">
-        <v>421772.6748571987</v>
+        <v>421772.6748571983</v>
       </c>
       <c r="O6" t="n">
-        <v>420048.5480499435</v>
+        <v>419442.0377184579</v>
       </c>
       <c r="P6" t="n">
-        <v>419574.5413802172</v>
+        <v>419442.037718458</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H2" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I2" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="P2" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.9830433027828</v>
+        <v>57.92057351076839</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>935.1814196862202</v>
+        <v>937.6805819743333</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>5.398206845666628</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.94177751000765</v>
+        <v>21.24900972374275</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.63515226291828</v>
+        <v>25.7261268948498</v>
       </c>
       <c r="K2" t="n">
-        <v>5.398206845666628</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.94177751000768</v>
+        <v>21.24900972374274</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951234</v>
+        <v>50.70958360951235</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.9830433027828</v>
+        <v>57.92057351076839</v>
       </c>
       <c r="E3" t="n">
-        <v>1029.793657290516</v>
+        <v>1031.85612708253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>103.7799642839274</v>
+        <v>106.2791265720409</v>
       </c>
       <c r="J4" t="n">
-        <v>79.15504152239441</v>
+        <v>76.65587923428131</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>5.398206845666628</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.94177751000765</v>
+        <v>21.24900972374275</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19.63515226291828</v>
+        <v>25.7261268948498</v>
       </c>
       <c r="P2" t="n">
-        <v>5.398206845666628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.0052489811958</v>
+        <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.179422125459</v>
+        <v>201.4990738507119</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.7217416843922</v>
+        <v>135.2425723098098</v>
       </c>
       <c r="S8" t="n">
-        <v>203.5251405439854</v>
+        <v>203.7140793596056</v>
       </c>
       <c r="T8" t="n">
-        <v>222.0402685709336</v>
+        <v>222.0765638936052</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3263618788346</v>
+        <v>251.3270251857024</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.214497032333</v>
+        <v>137.218933288112</v>
       </c>
       <c r="H9" t="n">
-        <v>110.9893813935462</v>
+        <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>84.9544923804071</v>
+        <v>85.1072318885893</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.14726848288659</v>
+        <v>92.42270548643145</v>
       </c>
       <c r="S9" t="n">
-        <v>169.2866787605616</v>
+        <v>169.3690802659312</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6446870269418</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9328939144697</v>
+        <v>225.9331857734025</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.882813214798</v>
+        <v>167.8865324226197</v>
       </c>
       <c r="H10" t="n">
-        <v>161.2654771574376</v>
+        <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.1976239888057</v>
+        <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.71183375985734</v>
+        <v>85.97478175284907</v>
       </c>
       <c r="K10" t="n">
-        <v>9.702552589660494</v>
+        <v>10.13465691657761</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.10460371297418</v>
+        <v>77.41603665156836</v>
       </c>
       <c r="R10" t="n">
-        <v>172.4298482267504</v>
+        <v>172.5970773348046</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1315571515389</v>
+        <v>222.1963728005765</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4834249962765</v>
+        <v>227.499316156969</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3131293850185</v>
+        <v>286.3133322508997</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>17.60454141305638</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>28.91388186835671</v>
       </c>
       <c r="R19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="S19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.91388186835673</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.60454141305726</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="S22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="C25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="D25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="E25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="F25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="G25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="H25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="I25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>17.60454141305752</v>
+        <v>28.91388186835667</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="S25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="T25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="U25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="V25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="W25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="X25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.91691412860023</v>
+        <v>68.22414634233529</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30195,19 +30195,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U37" t="n">
-        <v>46.72521440565419</v>
+        <v>46.72521440565396</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30381,25 +30381,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565312</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U40" t="n">
-        <v>55.47778196371175</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="C41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="D41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="E41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="F41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="G41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="H41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="T41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="U41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="V41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="W41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="X41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="D43" t="n">
-        <v>27.2308855839277</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="E43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="F43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="G43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="H43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="I43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="S43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="T43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="U43" t="n">
-        <v>78.04956796518667</v>
+        <v>40.54593709771308</v>
       </c>
       <c r="V43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="W43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="X43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.04956796518667</v>
+        <v>71.95859333325519</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="C44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="D44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="E44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="F44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="G44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="H44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="T44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="U44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="V44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="W44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="X44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="C46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="D46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="E46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="F46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="G46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="H46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="I46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="S46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="T46" t="n">
-        <v>72.65136111952003</v>
+        <v>40.54593709771325</v>
       </c>
       <c r="U46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="V46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="W46" t="n">
-        <v>30.15442030374106</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="X46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.65136111952003</v>
+        <v>71.95859333325519</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2411378625237497</v>
+        <v>0.2328465266764557</v>
       </c>
       <c r="H8" t="n">
-        <v>2.469553134571353</v>
+        <v>2.384639491325252</v>
       </c>
       <c r="I8" t="n">
-        <v>9.296467444946872</v>
+        <v>8.976815719694066</v>
       </c>
       <c r="J8" t="n">
-        <v>20.46627465937512</v>
+        <v>19.76255789350585</v>
       </c>
       <c r="K8" t="n">
-        <v>30.67364038000546</v>
+        <v>29.61895136772022</v>
       </c>
       <c r="L8" t="n">
-        <v>38.05336324021667</v>
+        <v>36.74492825849481</v>
       </c>
       <c r="M8" t="n">
-        <v>42.3416987028734</v>
+        <v>40.88581267727723</v>
       </c>
       <c r="N8" t="n">
-        <v>43.02683165476901</v>
+        <v>41.54738787119671</v>
       </c>
       <c r="O8" t="n">
-        <v>40.62901703429847</v>
+        <v>39.2320202215577</v>
       </c>
       <c r="P8" t="n">
-        <v>34.67592605324339</v>
+        <v>33.48362159423269</v>
       </c>
       <c r="Q8" t="n">
-        <v>26.0401763516116</v>
+        <v>25.14480535763212</v>
       </c>
       <c r="R8" t="n">
-        <v>15.14737625675751</v>
+        <v>14.62654563133992</v>
       </c>
       <c r="S8" t="n">
-        <v>5.494929042259953</v>
+        <v>5.305990226639739</v>
       </c>
       <c r="T8" t="n">
-        <v>1.055580993197715</v>
+        <v>1.019285670526185</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01929102900189998</v>
+        <v>0.01862772213411645</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1290201308776837</v>
+        <v>0.1245838750986339</v>
       </c>
       <c r="H9" t="n">
-        <v>1.246062842950262</v>
+        <v>1.203217951610491</v>
       </c>
       <c r="I9" t="n">
-        <v>4.442140471007971</v>
+        <v>4.289400962825773</v>
       </c>
       <c r="J9" t="n">
-        <v>12.18957297910608</v>
+        <v>11.77044409429681</v>
       </c>
       <c r="K9" t="n">
-        <v>20.83392174791089</v>
+        <v>20.11756372590528</v>
       </c>
       <c r="L9" t="n">
-        <v>28.01377885570059</v>
+        <v>27.0505470910433</v>
       </c>
       <c r="M9" t="n">
-        <v>32.69075860001662</v>
+        <v>31.56671256336877</v>
       </c>
       <c r="N9" t="n">
-        <v>33.55598570577092</v>
+        <v>32.40218951523637</v>
       </c>
       <c r="O9" t="n">
-        <v>30.69717122684961</v>
+        <v>29.64167312489295</v>
       </c>
       <c r="P9" t="n">
-        <v>24.63718621996752</v>
+        <v>23.79005593879089</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.46930653098293</v>
+        <v>15.90302237223966</v>
       </c>
       <c r="R9" t="n">
-        <v>8.010565669756543</v>
+        <v>7.735128666211676</v>
       </c>
       <c r="S9" t="n">
-        <v>2.396492343276273</v>
+        <v>2.314090837906641</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5200416678797866</v>
+        <v>0.5021604439282654</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008488166505110776</v>
+        <v>0.008196307572278549</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1081661436607558</v>
+        <v>0.1044469358390905</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9616953500019936</v>
+        <v>0.9286282113693692</v>
       </c>
       <c r="I10" t="n">
-        <v>3.252850938452549</v>
+        <v>3.141004215961015</v>
       </c>
       <c r="J10" t="n">
-        <v>7.647346356815438</v>
+        <v>7.3843983638237</v>
       </c>
       <c r="K10" t="n">
-        <v>12.56693923622236</v>
+        <v>12.13483490930524</v>
       </c>
       <c r="L10" t="n">
-        <v>16.0813555766182</v>
+        <v>15.52841080647715</v>
       </c>
       <c r="M10" t="n">
-        <v>16.95553468311284</v>
+        <v>16.37253195157671</v>
       </c>
       <c r="N10" t="n">
-        <v>16.55236996583186</v>
+        <v>15.98322973617647</v>
       </c>
       <c r="O10" t="n">
-        <v>15.28879274215848</v>
+        <v>14.76309962205618</v>
       </c>
       <c r="P10" t="n">
-        <v>13.08220341147905</v>
+        <v>12.63238213093873</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.057439538720201</v>
+        <v>8.746006600126027</v>
       </c>
       <c r="R10" t="n">
-        <v>4.863543150419075</v>
+        <v>4.696314042364924</v>
       </c>
       <c r="S10" t="n">
-        <v>1.885040885433354</v>
+        <v>1.820225236395786</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4621644320050476</v>
+        <v>0.4462732713124776</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005899971472404872</v>
+        <v>0.005697105591223126</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,10 +33731,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,28 +33743,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35814,7 +35814,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>337.3619135832546</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>107.3081204062504</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193729</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597742</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>331.2670120909964</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.99877995095089</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>289.8106929612693</v>
       </c>
       <c r="K23" t="n">
-        <v>366.7064079890753</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>365.2379208065413</v>
+        <v>376.5472612618405</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9229012776192</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>673.443263131374</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776177</v>
+        <v>770.0277979463631</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>742.5918998397242</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>647.6566093817995</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,10 +37236,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,19 +37391,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
